--- a/raw/Hindukush data/MultipleFeaturesHK.xlsx
+++ b/raw/Hindukush data/MultipleFeaturesHK.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20367"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282336CF-F965-4151-9541-85542BD14671}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51CEA943-FA72-4E1D-BF90-A7AA8B802435}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1838,10 +1838,10 @@
   <dimension ref="A1:CF70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="16" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="16" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15138,13 +15138,13 @@
         <v>0</v>
       </c>
       <c r="U53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V53" s="2">
         <v>0</v>
       </c>
       <c r="W53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X53" s="2">
         <v>1</v>
